--- a/data/financial_statements/soci/APH.xlsx
+++ b/data/financial_statements/soci/APH.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,881 +605,899 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>3239200000</v>
+      </c>
+      <c r="C2">
         <v>3295200000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3136800000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2951900000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3026800000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2818500000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2653900000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2377100000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2426000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>2323400000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1987500000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1862000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2151000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>2100600000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2015300000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>1958500000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2224700000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2129000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>1981400000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>1866900000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1943900000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1840800000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>1666500000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>1560100000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1651100000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>1635900000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>1548200000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>1451200000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>1430500000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1459600000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>1351500000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>1327100000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>1426500000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>1358700000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>1314200000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>1246100000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>1245766000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1153062000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>1136067000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>1079805000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>0.0702</v>
+      </c>
+      <c r="C3">
         <v>0.1691</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.182</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2418</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.2477</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2131</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.3353</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.2766</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1278</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.1061</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.0138</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>-0.0493</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-0.0331</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>-0.0133</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.0171</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0491</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.1445</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.1566</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.189</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1967</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1773</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1253</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0764</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.075</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.1542</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.1208</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.1455</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0935</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>0.0028</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>0.0743</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>0.0284</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>0.065</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.1451</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.1783</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.1568</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.154</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.08699999999999999</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.045</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0706</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>2201700000</v>
+      </c>
+      <c r="C4">
         <v>2235200000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2132600000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2025300000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2085600000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1928600000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1810700000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1649600000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1660400000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1588500000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1383700000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1302200000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1472300000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1438700000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1367700000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1330700000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1509700000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1440800000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1336600000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1260000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1308600000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1234700000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1113900000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1044200000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1104900000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1098600000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1050900000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>992000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>972100100</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>995600000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>919000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>902500000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>970000100</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>927100000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>897400000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>857200000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>856494000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>789214000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>776279000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>741913000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>1037500000</v>
+      </c>
+      <c r="C5">
         <v>1060000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1004200000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>926599900</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>941199700</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>889900000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>843200000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>727500100</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>765600600</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>734899900</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>603800000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>559800000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>678699700</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>661900100</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>647600100</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>627800000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>715000500</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>688200000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>644800000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>606900000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>635300200</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>606100100</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>552600000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>515900000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>546200200</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>537300000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>497299900</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>459200000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>458400000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>464000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>432500000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>424600000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>456500100</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>431600000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>416799900</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>388900000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>389272300</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>363848000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>359788000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>337892000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>361800000</v>
+      </c>
+      <c r="C6">
         <v>366900000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>355400000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>336800000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>333300000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>318700000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>311600000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>262700000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>265800000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>259100000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>246400000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>242900000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>248800000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>248300000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>239200000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>235100000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>248900000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>244000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>236600000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>230000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>235900000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>228200000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>212400000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>201800000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>207000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>204700000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>197000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>189500000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>169400000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>169200000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>166100000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>164400000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>168000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>161300000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>161000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>154800000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>144462000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>136828000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>135775000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>130935000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>666200000</v>
+      </c>
+      <c r="C7">
         <v>681100100</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>648800000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>589799800</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>592899700</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>571200000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>476200000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>464800000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>488300700</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>475799900</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>357400000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>316900000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>429900000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>413600100</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>399500100</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>376200100</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>457600300</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>444200000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>408200100</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>376900000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>399400300</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>377900100</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>336200000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>314100000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>339200000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>326300000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>300299900</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>239399900</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>288999800</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>294800000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>260700100</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>260200000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>278900000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>267799900</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>255799900</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>232100000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>241347400</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>224483000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>224013100</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>206957000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
         <v>33000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>31000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>28000000</v>
-      </c>
-      <c r="E8">
-        <v>29000000</v>
       </c>
       <c r="F8">
         <v>29000000</v>
@@ -1377,3261 +1509,3312 @@
         <v>29000000</v>
       </c>
       <c r="I8">
-        <v>28000000</v>
+        <v>29000000</v>
       </c>
       <c r="J8">
         <v>28000000</v>
       </c>
       <c r="K8">
+        <v>28000000</v>
+      </c>
+      <c r="L8">
         <v>30000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>29000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>28000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>37100000</v>
+      </c>
+      <c r="C9">
         <v>32800000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>30500000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>28100000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>28800000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>29000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>29100000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>28600000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>28400000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>28000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>30200000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>28800000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>28200000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>29700000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>30000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>29700000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>26400000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>24800000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>26000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>24500000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>25000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>24600000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>23400000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>19300000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>18400000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>18100000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>18000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>18100000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>17200000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>17000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>17100000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>17000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>20100000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>21100000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>20100000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>19100000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>16474000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>16048000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>15621000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>15457000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-33700000</v>
+      </c>
+      <c r="C10">
         <v>-30200000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-28200000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-26400000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-28900000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-29000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>-29100000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-28900000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>-28200000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>-27000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-28900000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-27700000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>-27200000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-39500000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>-29900000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-26700000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-25800000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>-24600000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>-25900000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-22200000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>-21000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>-19500000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-19000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-15700000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-14900000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-15800000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>-16300000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-17100000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-13300000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-12800000</v>
-      </c>
-      <c r="AE10">
-        <v>-12900000</v>
       </c>
       <c r="AF10">
         <v>-12900000</v>
       </c>
       <c r="AG10">
+        <v>-12900000</v>
+      </c>
+      <c r="AH10">
         <v>-15000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-16300000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-15800000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>-15000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-12517000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-12423000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-12588000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-12672000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>632500000</v>
+      </c>
+      <c r="C11">
         <v>650900000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>620600000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>563400000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>564000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>542200000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>447100000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>435900000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>460100000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>448800000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>328500000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>289200000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>402700100</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>374100000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>369600000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>349500000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>431800000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>419600000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>382300000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>354700000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>378400000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>358400000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>317200000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>298400000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>324300000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>310500000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>284000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>222300000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>275700100</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>282000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>247800000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>247300000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>263900000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>251500000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>240000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>217100000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>228830000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>212060000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>211425000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>194285000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>121500000</v>
+      </c>
+      <c r="C12">
         <v>150400000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>144500000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>134200000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>106400000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>120500000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>78100000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>104100000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>100000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>99300000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>68000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>46000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>81800000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>91800000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>78700000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>79600000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>90600000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>100000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>94500000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>86400000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>478900100</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>78100000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>63600000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>71100000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>85900000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>83400000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>75300000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>63900000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>73100000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>74700000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>67200000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>65500000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>69100000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>67300000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>63600000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>57300000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>60000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>50671000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>56557000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>40672000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>511000000</v>
+      </c>
+      <c r="C13">
         <v>500500000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>476100000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>429200000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>457599900</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>421700000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>369000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>331800000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>360100000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>349500000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>260500000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>243200000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>320900000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>282300000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>290900000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>269900000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>341200000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>319600000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>287800000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>268300000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-100500000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>280300000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>253600000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>227300000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>238400000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>227100000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>208700000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>158400000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>202600100</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>207300000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>180600000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>181800000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>194800000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>184200000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>176400000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>159800000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>168830000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>161389000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>154868000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>153613000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="L14">
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="M14">
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="U14">
         <v>0</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="Z14">
         <v>0</v>
       </c>
-      <c r="AM14">
+      <c r="AC14">
         <v>0</v>
       </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3500000</v>
+      </c>
+      <c r="C15">
         <v>3900000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3600000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>3500000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3800000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2900000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1800000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2200000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>3100000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2900000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2800000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1100000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>2100000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>2500000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>2400000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3200000</v>
-      </c>
-      <c r="R15">
-        <v>3000000</v>
       </c>
       <c r="S15">
         <v>3000000</v>
       </c>
       <c r="T15">
+        <v>3000000</v>
+      </c>
+      <c r="U15">
         <v>2700000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>2900000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>2800000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>2100000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>2400000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>2900000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2800000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2200000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1800000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>2400000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2800000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1600000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>2000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1300000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1500000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1300000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>923000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>591000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>880000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>606000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>507500000</v>
+      </c>
+      <c r="C16">
         <v>496600000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>472500000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>425700000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>464900100</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>426500000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>369800000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>329600000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>357000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>346600000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>257700000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>242100000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>318800000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>280300000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>288400000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>267500000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>338000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>316600000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>284800000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>265600000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-103400000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>277500000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>251500000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>224900000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>235500000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>224300000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>206500000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>156600000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>200200000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>204500000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>179000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>179800000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>193500000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>182200000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>174900000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>158500000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>167907000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>160798000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>153988000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>153007000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>0.83</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.79</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.71</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>0.78</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.71</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.62</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.55</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.595</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.58</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>0.435</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.405</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.535</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0.475</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>0.485</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.45</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.5649999999999999</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>0.525</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>0.475</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.435</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-0.17</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.455</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.41</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>0.365</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>0.38</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>0.365</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>0.335</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>0.255</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>0.325</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>0.33</v>
-      </c>
-      <c r="AE17">
-        <v>0.29</v>
       </c>
       <c r="AF17">
         <v>0.29</v>
       </c>
       <c r="AG17">
+        <v>0.29</v>
+      </c>
+      <c r="AH17">
         <v>0.31</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>0.29</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>0.2775</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>0.2525</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>0.265</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>0.2525</v>
-      </c>
-      <c r="AM17">
-        <v>0.24</v>
       </c>
       <c r="AN17">
         <v>0.24</v>
       </c>
+      <c r="AO17">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>0.8</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.76</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.68</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.74</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.68</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.59</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.53</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.575</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0.425</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.395</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.515</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.46</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>0.465</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.435</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.545</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>0.505</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>0.455</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.42</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>-0.17</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.44</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.4</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>0.355</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>0.375</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>0.355</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>0.325</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>0.25</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>0.315</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>0.325</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>0.28</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>0.285</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>0.305</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>0.285</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>0.2725</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>0.245</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>0.26</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>0.2475</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>0.2375</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>0.235</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>594900000</v>
+      </c>
+      <c r="C19">
         <v>595300000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>596200000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>598300000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>597900000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>597700000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>597400000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>598500000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>596100000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>597500000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>593300000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>594900000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>595000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>593200000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>596000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>596200000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>602400000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>601000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>601600000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>607400000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>611400000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>610000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>611600000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>613200000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>616600000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>617800000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>616400000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>615200000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>618200000</v>
-      </c>
-      <c r="AD19">
-        <v>617800000</v>
       </c>
       <c r="AE19">
         <v>617800000</v>
       </c>
       <c r="AF19">
+        <v>617800000</v>
+      </c>
+      <c r="AG19">
         <v>620000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>626200000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>626568000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>628458000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>630114000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>636400000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>634662000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>638820000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>638952000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>619500000</v>
+      </c>
+      <c r="C20">
         <v>619300000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>619700000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>625600000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>625500000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>625800000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>623800000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>624100000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>615000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>616400000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>608000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>612900000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>615900000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>612400000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>617400000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>617200000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>625200000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>624800000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>624600000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>632000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>633000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>631400000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>632200000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>632800000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>630400000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>631400000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>630800000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>628400000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>633000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>631800000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>633800000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>636000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>640800000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>641272000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>643164000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>644708000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>649000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>647172000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>651740000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>650852000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21">
         <v>0.3217</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.3201</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.3139</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.311</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.3157</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.3177</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.306</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3156</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.3163</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.3038</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.3006</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.3155</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.3151</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.3213</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.3206</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.3214</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.3233</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.3254</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.3251</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.3268</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.3293</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.3316</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.3307</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.3308</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3284</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.3212</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.3164</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.3204</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.3179</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.32</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3199</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.32</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3177</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.3172</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.3121</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.3125</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.3155</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.3167</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.3129</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
         <v>0.2067</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2068</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.1998</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.1959</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.2027</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1794</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.1955</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2013</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2048</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.1798</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.1702</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.1999</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.1969</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.1982</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.1921</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.2057</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2086</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.206</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2019</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.2055</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2053</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.2017</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.2013</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2054</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.1995</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.194</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.165</v>
-      </c>
-      <c r="AC22">
-        <v>0.202</v>
       </c>
       <c r="AD22">
         <v>0.202</v>
       </c>
       <c r="AE22">
+        <v>0.202</v>
+      </c>
+      <c r="AF22">
         <v>0.1929</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.1961</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1955</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.1971</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.1946</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.1863</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1937</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.1947</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.1972</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.1917</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>0.1975</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.1978</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.1909</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1863</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1924</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1685</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.1834</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.1897</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1932</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1653</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.1553</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1872</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.1781</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.1834</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1785</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1941</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1971</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1929</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.19</v>
-      </c>
-      <c r="U23">
-        <v>0.1947</v>
       </c>
       <c r="V23">
         <v>0.1947</v>
       </c>
       <c r="W23">
+        <v>0.1947</v>
+      </c>
+      <c r="X23">
         <v>0.1903</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.1913</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.1964</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.1898</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.1834</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.1532</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1927</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1932</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.1834</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.1863</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.185</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.1851</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.1826</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.1742</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1837</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.1839</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.1861</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1799</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>0.1507</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.1506</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1442</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.1536</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.1513</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.1393</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>0.1387</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.1472</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.1492</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>0.1297</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>0.13</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0.1482</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.1334</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>0.1431</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.1366</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>0.1519</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>0.1487</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>0.1437</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.1423</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-0.0532</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.1507</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.1509</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>0.1442</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>0.1426</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>0.1371</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>0.1334</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>0.1079</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>0.14</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>0.1401</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>0.1324</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>0.1355</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>0.1356</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>0.1341</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>0.1331</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>0.1272</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>0.1348</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>0.1395</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>0.1355</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>0.1417</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>783700100</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>739700100</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>680899800</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>713999600</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>666400000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>578799900</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>541500100</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>578400600</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>550200000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>428900000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>389000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>506600000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>485600100</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>477300100</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>461800100</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>562800400</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>516499900</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>469900100</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>437400000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>457700300</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>435800100</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>392700000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>368200000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>392599900</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>377500100</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>350799900</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>301299900</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>332499800</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>339400100</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>304100100</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>300300000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>329000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>308199900</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>293499900</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>272000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>276316400</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>259252000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>258183100</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>239549000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>666200000</v>
+      </c>
+      <c r="C26">
         <v>681100100</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>648800000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>589799800</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>592899700</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>571200000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>476200000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>464800000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>488300400</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>475799900</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>357400000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>316900000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>429900400</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>413600100</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>399500100</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>376200100</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>457599900</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>444200000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>408200100</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>376900000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>399400000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>377900100</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>336200000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>314100000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>339199800</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>326300000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>300299900</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>239399900</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>289000100</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>294800000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>260700100</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>260200000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>278900300</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>267799900</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>255799900</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>232100000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>241347200</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>224483000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>224013100</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>206957000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>511000000</v>
+      </c>
+      <c r="C27">
         <v>500500000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>476100000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>429200000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>457599900</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>421700000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>369000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>331800000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>360100000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>349500000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>260500000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>243200000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>320900000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>282300000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>290900000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>269900000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>341200000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>319600000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>287800000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>268300000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-100500000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>280300000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>253600000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>227300000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>238400000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>227100000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>208700000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>158400000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>202600100</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>207300000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>180600000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>181800000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>194800000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>184200000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>176400000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>159800000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>168830000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>161389000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>154868000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>153613000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28">
         <v>11100000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>7700000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2600000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>511000000</v>
+      </c>
+      <c r="C29">
         <v>500500000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>476100000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>429200000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>468700000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>429400000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>371600000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>331800000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>360100000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>349500000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>260500000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>243200000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>320900100</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>282300000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>290900000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>269900000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>341200100</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>319600000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>287800000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>268300000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-100500000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>280300000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>253600000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>227300000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>238400000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>227100000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>208700000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>158400000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>202600000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>207300000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>180600000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>181800000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>194800000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>184200000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>176400000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>159800000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>168830000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>161389000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>154868000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>153613000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>0.85</v>
+      </c>
+      <c r="C30">
         <v>0.83</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.79</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.7174</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.7556</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.7</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.61</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>0.5544</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.6012</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.58</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>0.43</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0.4088</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>0.5233</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.4759</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.4881</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.4527</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>0.5682</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>0.5318000000000001</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>0.4784</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.4417</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-0.1642</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0.4595</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.4147</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>0.3707</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>0.3867</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>0.3676</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>0.3386</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>0.2575</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>0.3282</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>0.3355</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>0.2923</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>0.2932</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.3139</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>0.294</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>0.2807</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>0.2536</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>0.2665</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>0.2543</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>0.2424</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>0.2404</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>0.82</v>
+      </c>
+      <c r="C31">
         <v>0.8</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.76</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.6861</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.7184</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.67</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.59</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>0.5316</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.5832000000000001</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.5600000000000001</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>0.42</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>0.3968</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.5106000000000001</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.461</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>0.4712</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>0.4373</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>0.5496</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>0.5115</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.4608</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.4245</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-0.1605</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0.4439</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.4011</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>0.3592</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>0.3782</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>0.3597</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>0.3308</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>0.2521</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>0.3212</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>0.3281</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>0.2849</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>0.2858</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.3067</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>0.2872</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>0.2743</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>0.2479</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>0.2611</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>0.2494</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>0.2376</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>0.236</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32">
         <v>0.0158</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.01</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.0042</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33">
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33">
         <v>0.0256</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.01</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.0044</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0.859</v>
+      </c>
+      <c r="C34">
         <v>0.8408</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.7986</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.7174</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.7837</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.7184</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.622</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.5544</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.6026</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.5849</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.4391</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.4088</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.5396</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.4759</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.4881</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.4527</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.5682</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.5318000000000001</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.4784</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.4417</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>-0.1642</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.4595</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.4147</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.3707</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.3867</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.3676</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.3386</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.2575</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.3282</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.3355</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.2923</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.2932</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.3139</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.294</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.2807</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.2536</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.2665</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.2543</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.2424</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.2404</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>0.8249</v>
+      </c>
+      <c r="C35">
         <v>0.8082</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.7683</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.6861</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.7468</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.6862</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.5957</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>0.5316</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.5806</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.5669999999999999</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>0.4285</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>0.3968</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.5205</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>0.461</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>0.4712</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.4373</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.5496</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>0.5115</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>0.4608</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.4245</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>-0.1605</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>0.4439</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.4011</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>0.3592</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>0.3782</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>0.3597</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>0.3308</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>0.2521</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>0.3212</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>0.3281</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>0.2849</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>0.2858</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>0.3067</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>0.2872</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>0.2743</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>0.2479</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>0.2611</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>0.2494</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>0.2376</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>0.236</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
         <v>619300000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>619700000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>625600000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>628200000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>625800000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>623800000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>624100000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>622400000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>616400000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>608000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>613000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>616400000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>612400000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>617400000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>617200000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>619400000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>624800000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>624600000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>632000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>635600000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>631400000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>632200000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>632800000</v>
-      </c>
-      <c r="Y36">
-        <v>631400000</v>
       </c>
       <c r="Z36">
         <v>631400000</v>
       </c>
       <c r="AA36">
+        <v>631400000</v>
+      </c>
+      <c r="AB36">
         <v>630800000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>628400000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>630796000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>631774000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>633756000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>635972000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>634404000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>641272000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>643164000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>644708000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>646692000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>647172000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>651740000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>650852000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37">
         <v>0.2378</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.2358</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.2307</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.2359</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.2364</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.2181</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>0.2278</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.2384</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>0.2368</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>0.2158</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.2089</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.2355</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>0.2312</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.2368</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>0.2358</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>0.253</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.2426</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.2372</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.2343</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.2355</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>0.2367</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.2356</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>0.236</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>0.2378</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>0.2308</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>0.2266</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>0.2076</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>0.2324</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>0.2325</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>0.225</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>0.2263</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>0.2306</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>0.2268</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>0.2233</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>0.2183</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>0.2218</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>0.2248</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>0.2273</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>0.2218</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38">
         <v>0.1748</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.1729</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.1188</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>0.1555</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.128</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.1461</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>0.135</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.1818</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>0.1716</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>0.1852</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.2064</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.1972</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.1962</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.16</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>0.1754</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>0.17</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>0.1593</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.1338</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.0697</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>0.2201</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>0.1077</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.1683</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>0.1524</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>0.2113</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>0.1778</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>0.1573</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>0.1338</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>0.2253</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>0.1955</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>0.1735</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>0.1419</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>0.1917</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>0.1649</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>0.1374</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>0.1627</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>0.1697</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>0.1708</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>0.1589</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>0.1669</v>
       </c>
     </row>
